--- a/data/pca/factorExposure/factorExposure_2014-11-07.xlsx
+++ b/data/pca/factorExposure/factorExposure_2014-11-07.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
   <si>
     <t>factor1</t>
   </si>
@@ -29,6 +29,18 @@
   </si>
   <si>
     <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -695,13 +707,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F104"/>
+  <dimension ref="A1:J104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -717,30 +729,54 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B2">
-        <v>-0.002593192908331335</v>
+        <v>-0.01061930506657543</v>
       </c>
       <c r="C2">
-        <v>0.07974215703656214</v>
+        <v>0.07300476970718185</v>
       </c>
       <c r="D2">
-        <v>0.1561980618114536</v>
+        <v>0.00546172905932325</v>
       </c>
       <c r="E2">
-        <v>-0.1335421327354539</v>
+        <v>-0.1732393753586771</v>
       </c>
       <c r="F2">
-        <v>-0.18897102955278</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>-0.03786665447212493</v>
+      </c>
+      <c r="G2">
+        <v>-0.0529888101968541</v>
+      </c>
+      <c r="H2">
+        <v>0.06488360269215876</v>
+      </c>
+      <c r="I2">
+        <v>0.2286815233399652</v>
+      </c>
+      <c r="J2">
+        <v>-0.08551662347509248</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -757,30 +793,54 @@
       <c r="F3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B4">
-        <v>-0.02847706739354798</v>
+        <v>-0.01715067554749606</v>
       </c>
       <c r="C4">
-        <v>0.153001579535408</v>
+        <v>0.1512198468677546</v>
       </c>
       <c r="D4">
-        <v>0.05733092635917814</v>
+        <v>0.03937712684640925</v>
       </c>
       <c r="E4">
-        <v>-0.09390086588892117</v>
+        <v>-0.09129885110778292</v>
       </c>
       <c r="F4">
-        <v>0.03468720825000923</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>0.05883466124512473</v>
+      </c>
+      <c r="G4">
+        <v>-0.003478291340538108</v>
+      </c>
+      <c r="H4">
+        <v>0.11711845230545</v>
+      </c>
+      <c r="I4">
+        <v>0.07030573114047564</v>
+      </c>
+      <c r="J4">
+        <v>-0.1171541770966953</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -797,230 +857,374 @@
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B6">
-        <v>-0.01747589708862577</v>
+        <v>-0.03312279450064987</v>
       </c>
       <c r="C6">
-        <v>0.0681235747626414</v>
+        <v>0.07013968220116694</v>
       </c>
       <c r="D6">
-        <v>0.0685540220068941</v>
+        <v>0.01766225058515681</v>
       </c>
       <c r="E6">
-        <v>-0.09595608972004863</v>
+        <v>-0.1088731620557608</v>
       </c>
       <c r="F6">
-        <v>0.01344973043275158</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>-0.02901269083108872</v>
+      </c>
+      <c r="G6">
+        <v>0.05291155197188955</v>
+      </c>
+      <c r="H6">
+        <v>0.03974095262560849</v>
+      </c>
+      <c r="I6">
+        <v>0.06564583160079321</v>
+      </c>
+      <c r="J6">
+        <v>0.02138158718127407</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B7">
-        <v>0.01406729933697961</v>
+        <v>-0.00909822377668178</v>
       </c>
       <c r="C7">
-        <v>0.05088793956463976</v>
+        <v>0.06586119098758593</v>
       </c>
       <c r="D7">
-        <v>0.02750590851754654</v>
+        <v>0.01003192208988209</v>
       </c>
       <c r="E7">
-        <v>-0.06218644489641144</v>
+        <v>-0.0400387304405948</v>
       </c>
       <c r="F7">
-        <v>0.001566838778527797</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>0.01856330993950732</v>
+      </c>
+      <c r="G7">
+        <v>0.0633309319285426</v>
+      </c>
+      <c r="H7">
+        <v>0.08740903357167909</v>
+      </c>
+      <c r="I7">
+        <v>0.01901635592428431</v>
+      </c>
+      <c r="J7">
+        <v>-0.03322387263078596</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B8">
-        <v>0.01557442684923151</v>
+        <v>0.009244617405317224</v>
       </c>
       <c r="C8">
-        <v>0.08032132179404916</v>
+        <v>0.07352715486494742</v>
       </c>
       <c r="D8">
-        <v>0.06067931458404063</v>
+        <v>0.034827954784721</v>
       </c>
       <c r="E8">
-        <v>-0.1246261771949576</v>
+        <v>-0.08850890368462637</v>
       </c>
       <c r="F8">
-        <v>-0.07272471539771576</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>0.02516570555621457</v>
+      </c>
+      <c r="G8">
+        <v>-0.0513338334674972</v>
+      </c>
+      <c r="H8">
+        <v>0.03289219514305689</v>
+      </c>
+      <c r="I8">
+        <v>0.009953039135317129</v>
+      </c>
+      <c r="J8">
+        <v>0.007619794662339872</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B9">
-        <v>-0.01419555219935215</v>
+        <v>-0.01029692484783232</v>
       </c>
       <c r="C9">
-        <v>0.1278959139230017</v>
+        <v>0.1166439563013988</v>
       </c>
       <c r="D9">
-        <v>0.03779035864773393</v>
+        <v>0.02572786185023222</v>
       </c>
       <c r="E9">
-        <v>-0.07035669632743916</v>
+        <v>-0.05244653919606027</v>
       </c>
       <c r="F9">
-        <v>0.02380376386452355</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>0.009323111370075346</v>
+      </c>
+      <c r="G9">
+        <v>0.002816099369772196</v>
+      </c>
+      <c r="H9">
+        <v>0.1044207933542378</v>
+      </c>
+      <c r="I9">
+        <v>0.03844315369606361</v>
+      </c>
+      <c r="J9">
+        <v>-0.0492426198164865</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B10">
-        <v>-0.2614415336943054</v>
+        <v>-0.2504591914321912</v>
       </c>
       <c r="C10">
-        <v>-0.09470194974300002</v>
+        <v>-0.08663087193734473</v>
       </c>
       <c r="D10">
-        <v>0.02336775703204255</v>
+        <v>0.005537265130138525</v>
       </c>
       <c r="E10">
-        <v>0.01241053456317634</v>
+        <v>-0.0167309071901703</v>
       </c>
       <c r="F10">
-        <v>0.004733425278263784</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>0.008572342279963691</v>
+      </c>
+      <c r="G10">
+        <v>0.00908097085133258</v>
+      </c>
+      <c r="H10">
+        <v>0.03036508518717329</v>
+      </c>
+      <c r="I10">
+        <v>-0.1815360653047527</v>
+      </c>
+      <c r="J10">
+        <v>-0.01854604965129369</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B11">
-        <v>-0.006427078098245599</v>
+        <v>-0.01200539646215536</v>
       </c>
       <c r="C11">
-        <v>0.06350399111098062</v>
+        <v>0.07968696094755451</v>
       </c>
       <c r="D11">
-        <v>0.01196412177506884</v>
+        <v>0.02341849711101662</v>
       </c>
       <c r="E11">
-        <v>-0.04127805981535484</v>
+        <v>-0.01427427467888613</v>
       </c>
       <c r="F11">
-        <v>0.06451010719407013</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>0.008849657567428535</v>
+      </c>
+      <c r="G11">
+        <v>0.03335449979692173</v>
+      </c>
+      <c r="H11">
+        <v>0.0305894769460287</v>
+      </c>
+      <c r="I11">
+        <v>-0.02781423820638135</v>
+      </c>
+      <c r="J11">
+        <v>0.0121972777340018</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B12">
-        <v>-0.006884479486439724</v>
+        <v>-0.0133250785186309</v>
       </c>
       <c r="C12">
-        <v>0.06128772200788917</v>
+        <v>0.06287261631952458</v>
       </c>
       <c r="D12">
-        <v>0.003630686465445494</v>
+        <v>0.01306279377769395</v>
       </c>
       <c r="E12">
-        <v>-0.03196861176624198</v>
+        <v>-0.01287839124190431</v>
       </c>
       <c r="F12">
-        <v>0.04148533916154919</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>-0.02267264860335697</v>
+      </c>
+      <c r="G12">
+        <v>0.0340868849252234</v>
+      </c>
+      <c r="H12">
+        <v>0.03236654713943205</v>
+      </c>
+      <c r="I12">
+        <v>-0.01497699693361894</v>
+      </c>
+      <c r="J12">
+        <v>-0.0009768541881477965</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B13">
-        <v>-0.01456867848207085</v>
+        <v>-0.003075820445162894</v>
       </c>
       <c r="C13">
-        <v>0.09536776860280159</v>
+        <v>0.1098385311460401</v>
       </c>
       <c r="D13">
-        <v>0.04534126196169312</v>
+        <v>0.02080048420970831</v>
       </c>
       <c r="E13">
-        <v>-0.1333755251247279</v>
+        <v>-0.1435458163068987</v>
       </c>
       <c r="F13">
-        <v>0.0729740700206228</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>-0.1076515190468955</v>
+      </c>
+      <c r="G13">
+        <v>0.08542102940545343</v>
+      </c>
+      <c r="H13">
+        <v>0.07872404342295344</v>
+      </c>
+      <c r="I13">
+        <v>-0.1731952946830791</v>
+      </c>
+      <c r="J13">
+        <v>-0.03600154942745162</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B14">
-        <v>-0.004664600184353707</v>
+        <v>-0.01309823996748209</v>
       </c>
       <c r="C14">
-        <v>0.05552853078588424</v>
+        <v>0.07351451555321781</v>
       </c>
       <c r="D14">
-        <v>0.02737483275461145</v>
+        <v>0.03152411399968382</v>
       </c>
       <c r="E14">
-        <v>-0.05298824351852626</v>
+        <v>-0.07165658854976482</v>
       </c>
       <c r="F14">
-        <v>0.01581635510374751</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>-0.03704592169800655</v>
+      </c>
+      <c r="G14">
+        <v>0.09441619476384157</v>
+      </c>
+      <c r="H14">
+        <v>0.1869036329849477</v>
+      </c>
+      <c r="I14">
+        <v>-0.06403748725317049</v>
+      </c>
+      <c r="J14">
+        <v>0.15188635071499</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B15">
-        <v>-1.160263760628703e-05</v>
+        <v>0.0009616396723491638</v>
       </c>
       <c r="C15">
-        <v>0.07385487028913021</v>
+        <v>0.07251350134843575</v>
       </c>
       <c r="D15">
-        <v>0.05444421370978233</v>
+        <v>0.01828867089931481</v>
       </c>
       <c r="E15">
-        <v>-0.09763782379784706</v>
+        <v>-0.06329513755418001</v>
       </c>
       <c r="F15">
-        <v>0.01980026715746645</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+        <v>0.005214198082042067</v>
+      </c>
+      <c r="G15">
+        <v>0.0437956375473621</v>
+      </c>
+      <c r="H15">
+        <v>0.0690828430402073</v>
+      </c>
+      <c r="I15">
+        <v>-0.01832036508905769</v>
+      </c>
+      <c r="J15">
+        <v>0.05237313818127676</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B16">
-        <v>-0.01100385322865916</v>
+        <v>-0.01261901262798303</v>
       </c>
       <c r="C16">
-        <v>0.05963164589645506</v>
+        <v>0.06605930302778293</v>
       </c>
       <c r="D16">
-        <v>0.01074296976307209</v>
+        <v>0.01554929902400431</v>
       </c>
       <c r="E16">
-        <v>-0.02849381219610399</v>
+        <v>-0.008363401243764263</v>
       </c>
       <c r="F16">
-        <v>0.04717764642911273</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>-0.004486578251624761</v>
+      </c>
+      <c r="G16">
+        <v>0.02977758637009433</v>
+      </c>
+      <c r="H16">
+        <v>0.02943248979759965</v>
+      </c>
+      <c r="I16">
+        <v>-0.01060075831698267</v>
+      </c>
+      <c r="J16">
+        <v>-6.251811126932358e-05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1037,10 +1241,22 @@
       <c r="F17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1057,10 +1273,22 @@
       <c r="F18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1077,150 +1305,246 @@
       <c r="F19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B20">
-        <v>-0.0078393715296601</v>
+        <v>-0.008670496550451209</v>
       </c>
       <c r="C20">
-        <v>0.07101676790301641</v>
+        <v>0.08481866272691886</v>
       </c>
       <c r="D20">
-        <v>0.04139856494159217</v>
+        <v>0.00583675009552857</v>
       </c>
       <c r="E20">
-        <v>-0.05884353512683083</v>
+        <v>-0.03112549928904866</v>
       </c>
       <c r="F20">
-        <v>0.08238688618977212</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>0.01553105599495521</v>
+      </c>
+      <c r="G20">
+        <v>0.07289979135911859</v>
+      </c>
+      <c r="H20">
+        <v>0.06525412285781056</v>
+      </c>
+      <c r="I20">
+        <v>0.002005469471332544</v>
+      </c>
+      <c r="J20">
+        <v>-0.00552920535114348</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B21">
-        <v>-0.001807254030333616</v>
+        <v>-0.009427404943003126</v>
       </c>
       <c r="C21">
-        <v>0.09260853665825479</v>
+        <v>0.08483319683719008</v>
       </c>
       <c r="D21">
-        <v>0.0775596256969439</v>
+        <v>0.01102874854495836</v>
       </c>
       <c r="E21">
-        <v>-0.02446816604884458</v>
+        <v>-0.06204687992060152</v>
       </c>
       <c r="F21">
-        <v>-0.02380189745912264</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>-0.07619880171642524</v>
+      </c>
+      <c r="G21">
+        <v>0.006790762115093905</v>
+      </c>
+      <c r="H21">
+        <v>0.1545510234663232</v>
+      </c>
+      <c r="I21">
+        <v>-0.0541014929909644</v>
+      </c>
+      <c r="J21">
+        <v>-0.003248948848987406</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B22">
-        <v>0.007792127553001874</v>
+        <v>0.01456693888690156</v>
       </c>
       <c r="C22">
-        <v>0.1344524085336334</v>
+        <v>0.1473231697577713</v>
       </c>
       <c r="D22">
-        <v>0.3000397142242683</v>
+        <v>-0.01080915711904245</v>
       </c>
       <c r="E22">
-        <v>-0.159281026189639</v>
+        <v>-0.4250414339504026</v>
       </c>
       <c r="F22">
-        <v>-0.1452680942034769</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
+        <v>0.160419048336925</v>
+      </c>
+      <c r="G22">
+        <v>-0.2242083281994114</v>
+      </c>
+      <c r="H22">
+        <v>-0.3594959126692411</v>
+      </c>
+      <c r="I22">
+        <v>-0.1387660882321411</v>
+      </c>
+      <c r="J22">
+        <v>0.1341870364651439</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B23">
-        <v>0.008292222001777302</v>
+        <v>0.01076011573053316</v>
       </c>
       <c r="C23">
-        <v>0.1361540967765876</v>
+        <v>0.1516255678039957</v>
       </c>
       <c r="D23">
-        <v>0.2983661080780814</v>
+        <v>-0.01262234838335023</v>
       </c>
       <c r="E23">
-        <v>-0.1571682648554914</v>
+        <v>-0.4147628940852331</v>
       </c>
       <c r="F23">
-        <v>-0.1446665346811624</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+        <v>0.1528079291513248</v>
+      </c>
+      <c r="G23">
+        <v>-0.2171032407472541</v>
+      </c>
+      <c r="H23">
+        <v>-0.3357939415461381</v>
+      </c>
+      <c r="I23">
+        <v>-0.1383355543228625</v>
+      </c>
+      <c r="J23">
+        <v>0.12083988097762</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B24">
-        <v>-0.003003317513394315</v>
+        <v>-0.01285654283620339</v>
       </c>
       <c r="C24">
-        <v>0.07629558663243224</v>
+        <v>0.07665568210250354</v>
       </c>
       <c r="D24">
-        <v>0.001210574460157146</v>
+        <v>0.02828062997129457</v>
       </c>
       <c r="E24">
-        <v>-0.05012264669243589</v>
+        <v>-0.01531073407721222</v>
       </c>
       <c r="F24">
-        <v>0.0485015094021754</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>0.001704736966884689</v>
+      </c>
+      <c r="G24">
+        <v>0.03560026757576337</v>
+      </c>
+      <c r="H24">
+        <v>0.04288344796958332</v>
+      </c>
+      <c r="I24">
+        <v>-0.01279890311363194</v>
+      </c>
+      <c r="J24">
+        <v>0.002296650718820497</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B25">
-        <v>-0.01218724997931108</v>
+        <v>-0.01941145371524696</v>
       </c>
       <c r="C25">
-        <v>0.07179795608566659</v>
+        <v>0.07480031290800498</v>
       </c>
       <c r="D25">
-        <v>0.003978139150341216</v>
+        <v>0.01876062242786917</v>
       </c>
       <c r="E25">
-        <v>-0.02417592519963347</v>
+        <v>-0.009963090510421395</v>
       </c>
       <c r="F25">
-        <v>0.04968263295588422</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>0.00534989916361944</v>
+      </c>
+      <c r="G25">
+        <v>0.02883853424966556</v>
+      </c>
+      <c r="H25">
+        <v>0.03015587709937096</v>
+      </c>
+      <c r="I25">
+        <v>-0.03591064712309011</v>
+      </c>
+      <c r="J25">
+        <v>0.01060212855965865</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B26">
-        <v>-0.006675326009214274</v>
+        <v>-0.01852037573792247</v>
       </c>
       <c r="C26">
-        <v>0.05317783562168892</v>
+        <v>0.06279872599691416</v>
       </c>
       <c r="D26">
-        <v>0.009146491204682737</v>
+        <v>0.04702511027951474</v>
       </c>
       <c r="E26">
-        <v>-0.05919840240428135</v>
+        <v>-0.0178394881138627</v>
       </c>
       <c r="F26">
-        <v>0.006842450092480637</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>-0.009053537564738328</v>
+      </c>
+      <c r="G26">
+        <v>0.02276696782673945</v>
+      </c>
+      <c r="H26">
+        <v>0.1166357127222992</v>
+      </c>
+      <c r="I26">
+        <v>0.03285799243421086</v>
+      </c>
+      <c r="J26">
+        <v>-0.06963388725122543</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1237,190 +1561,310 @@
       <c r="F27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:6">
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B28">
-        <v>-0.3466930890113777</v>
+        <v>-0.3190575762711231</v>
       </c>
       <c r="C28">
-        <v>-0.1085157245133248</v>
+        <v>-0.1080998757753763</v>
       </c>
       <c r="D28">
-        <v>0.006980785846943065</v>
+        <v>-0.01568170193346625</v>
       </c>
       <c r="E28">
-        <v>0.05034719694903911</v>
+        <v>-0.01398211957648327</v>
       </c>
       <c r="F28">
-        <v>-0.03656176185595917</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>0.04044244110464142</v>
+      </c>
+      <c r="G28">
+        <v>-0.09132218566619406</v>
+      </c>
+      <c r="H28">
+        <v>0.07842273667205993</v>
+      </c>
+      <c r="I28">
+        <v>-0.09000462601222874</v>
+      </c>
+      <c r="J28">
+        <v>-0.1261636532298046</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B29">
-        <v>-0.00334445056702049</v>
+        <v>-0.008025848047185253</v>
       </c>
       <c r="C29">
-        <v>0.05456978842539379</v>
+        <v>0.07714684986488117</v>
       </c>
       <c r="D29">
-        <v>0.0468770978958036</v>
+        <v>0.03193636075102702</v>
       </c>
       <c r="E29">
-        <v>-0.09275970016451832</v>
+        <v>-0.1151436467876086</v>
       </c>
       <c r="F29">
-        <v>0.05286499981915767</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>-0.04846114023272839</v>
+      </c>
+      <c r="G29">
+        <v>0.1520976862230133</v>
+      </c>
+      <c r="H29">
+        <v>0.2662747765987841</v>
+      </c>
+      <c r="I29">
+        <v>-0.09157318204153335</v>
+      </c>
+      <c r="J29">
+        <v>0.2293406514433453</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B30">
-        <v>-0.02288227003147161</v>
+        <v>-0.02076126322711327</v>
       </c>
       <c r="C30">
-        <v>0.1760254995228752</v>
+        <v>0.1557935653841684</v>
       </c>
       <c r="D30">
-        <v>0.04081920614268341</v>
+        <v>0.04074837669384355</v>
       </c>
       <c r="E30">
-        <v>-0.09124754792774449</v>
+        <v>-0.06797366408477874</v>
       </c>
       <c r="F30">
-        <v>-0.004447215759991876</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>0.02011562768562649</v>
+      </c>
+      <c r="G30">
+        <v>-0.01020331703893009</v>
+      </c>
+      <c r="H30">
+        <v>0.03492408669685955</v>
+      </c>
+      <c r="I30">
+        <v>0.06175732608787953</v>
+      </c>
+      <c r="J30">
+        <v>-0.06523864314101843</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B31">
-        <v>0.005986845316864468</v>
+        <v>-0.007277261569583649</v>
       </c>
       <c r="C31">
-        <v>0.09818231137155689</v>
+        <v>0.09650400193325423</v>
       </c>
       <c r="D31">
-        <v>-0.03487173377658417</v>
+        <v>0.03300759438813015</v>
       </c>
       <c r="E31">
-        <v>0.007321947076053122</v>
+        <v>0.0157873455498655</v>
       </c>
       <c r="F31">
-        <v>-0.0318940681155099</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>-0.00336872486412544</v>
+      </c>
+      <c r="G31">
+        <v>-0.0347112934102944</v>
+      </c>
+      <c r="H31">
+        <v>0.04794332382206781</v>
+      </c>
+      <c r="I31">
+        <v>-0.05276705555531869</v>
+      </c>
+      <c r="J31">
+        <v>0.01301503127368812</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B32">
-        <v>-0.03857380613459983</v>
+        <v>-0.02677114462799732</v>
       </c>
       <c r="C32">
-        <v>0.08101841811928268</v>
+        <v>0.06976893931682142</v>
       </c>
       <c r="D32">
-        <v>0.09266031144917643</v>
+        <v>0.008549004641560857</v>
       </c>
       <c r="E32">
-        <v>-0.1027565462298176</v>
+        <v>-0.1234294001857048</v>
       </c>
       <c r="F32">
-        <v>-0.02607623564538986</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>-0.04335455238994221</v>
+      </c>
+      <c r="G32">
+        <v>0.01000550137715483</v>
+      </c>
+      <c r="H32">
+        <v>0.1142573495721866</v>
+      </c>
+      <c r="I32">
+        <v>-0.1618653875546911</v>
+      </c>
+      <c r="J32">
+        <v>-0.1494954097166346</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B33">
-        <v>-0.01160107685520458</v>
+        <v>-0.01322492029346326</v>
       </c>
       <c r="C33">
-        <v>0.0923536765743211</v>
+        <v>0.1088867938229196</v>
       </c>
       <c r="D33">
-        <v>0.007030256377660366</v>
+        <v>0.02527222055168849</v>
       </c>
       <c r="E33">
-        <v>-0.06127100639583719</v>
+        <v>-0.04220855316381297</v>
       </c>
       <c r="F33">
-        <v>0.01530851568800911</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>0.003019411721358551</v>
+      </c>
+      <c r="G33">
+        <v>0.03410119092502362</v>
+      </c>
+      <c r="H33">
+        <v>0.05500750872244372</v>
+      </c>
+      <c r="I33">
+        <v>-0.02661365036830912</v>
+      </c>
+      <c r="J33">
+        <v>-0.006766408355816086</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B34">
-        <v>-0.002388191763029725</v>
+        <v>-0.01333947737521202</v>
       </c>
       <c r="C34">
-        <v>0.05888650559886103</v>
+        <v>0.05654633875704561</v>
       </c>
       <c r="D34">
-        <v>0.001082721121443818</v>
+        <v>0.01515680074629483</v>
       </c>
       <c r="E34">
-        <v>-0.0232522578945853</v>
+        <v>-0.004257790325720067</v>
       </c>
       <c r="F34">
-        <v>0.03093223208873461</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>-0.01063380174802111</v>
+      </c>
+      <c r="G34">
+        <v>0.02695643906665475</v>
+      </c>
+      <c r="H34">
+        <v>0.005461059467812778</v>
+      </c>
+      <c r="I34">
+        <v>-0.02858469191866436</v>
+      </c>
+      <c r="J34">
+        <v>-0.006076369402496863</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B35">
-        <v>-0.002087055507925987</v>
+        <v>-0.007082888215020369</v>
       </c>
       <c r="C35">
-        <v>0.01003634216161134</v>
+        <v>0.03682356997195513</v>
       </c>
       <c r="D35">
-        <v>0.008618999644152265</v>
+        <v>0.008548897747642108</v>
       </c>
       <c r="E35">
-        <v>-0.01257346772213037</v>
+        <v>-0.03775533889399383</v>
       </c>
       <c r="F35">
-        <v>0.01492043845827318</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
+        <v>-0.01075858399658151</v>
+      </c>
+      <c r="G35">
+        <v>0.06401248218475604</v>
+      </c>
+      <c r="H35">
+        <v>0.1308236327021431</v>
+      </c>
+      <c r="I35">
+        <v>-0.1003987831872408</v>
+      </c>
+      <c r="J35">
+        <v>0.1421058238575277</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B36">
-        <v>-0.004328688648519041</v>
+        <v>-0.01005512083417591</v>
       </c>
       <c r="C36">
-        <v>0.04527835460933581</v>
+        <v>0.04897916859329234</v>
       </c>
       <c r="D36">
-        <v>0.006219083175709394</v>
+        <v>0.03483851874483963</v>
       </c>
       <c r="E36">
-        <v>-0.06773044205081828</v>
+        <v>-0.03213210355969462</v>
       </c>
       <c r="F36">
-        <v>0.00815162803931716</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>-0.003737746194155595</v>
+      </c>
+      <c r="G36">
+        <v>0.02194507015054931</v>
+      </c>
+      <c r="H36">
+        <v>0.0672666076251915</v>
+      </c>
+      <c r="I36">
+        <v>0.004820927791667975</v>
+      </c>
+      <c r="J36">
+        <v>-0.02910745516499648</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1437,90 +1881,150 @@
       <c r="F37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B38">
-        <v>-0.01750350156620517</v>
+        <v>-0.01081162958667545</v>
       </c>
       <c r="C38">
-        <v>0.04912980010230301</v>
+        <v>0.06351010761063416</v>
       </c>
       <c r="D38">
-        <v>0.01552548867533018</v>
+        <v>0.0234290160201013</v>
       </c>
       <c r="E38">
-        <v>-0.06001438555356736</v>
+        <v>-0.03975096967754058</v>
       </c>
       <c r="F38">
-        <v>0.005964100811259615</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>0.04636075457648076</v>
+      </c>
+      <c r="G38">
+        <v>0.01850711283209846</v>
+      </c>
+      <c r="H38">
+        <v>0.05543264589317447</v>
+      </c>
+      <c r="I38">
+        <v>-0.04829340289872604</v>
+      </c>
+      <c r="J38">
+        <v>0.001767625384745313</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B39">
-        <v>-0.001269908159756571</v>
+        <v>-0.009985715201659711</v>
       </c>
       <c r="C39">
-        <v>0.1341218600748983</v>
+        <v>0.1314787211925664</v>
       </c>
       <c r="D39">
-        <v>0.02449484978494762</v>
+        <v>0.04050943797004811</v>
       </c>
       <c r="E39">
-        <v>-0.06734523681585521</v>
+        <v>-0.02474501897956716</v>
       </c>
       <c r="F39">
-        <v>0.06446142140236963</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>-0.01594475308435229</v>
+      </c>
+      <c r="G39">
+        <v>0.05764679129261416</v>
+      </c>
+      <c r="H39">
+        <v>0.0396482778416701</v>
+      </c>
+      <c r="I39">
+        <v>0.02275659495894596</v>
+      </c>
+      <c r="J39">
+        <v>0.006493030004838431</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B40">
-        <v>0.005472524706428871</v>
+        <v>-0.01035939816153313</v>
       </c>
       <c r="C40">
-        <v>0.02895160405145106</v>
+        <v>0.05980193317976163</v>
       </c>
       <c r="D40">
-        <v>0.04435021762502571</v>
+        <v>0.02319330430820224</v>
       </c>
       <c r="E40">
-        <v>-0.1314507227978195</v>
+        <v>-0.1161352675872955</v>
       </c>
       <c r="F40">
-        <v>0.003152273021953902</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>-0.0251596938979606</v>
+      </c>
+      <c r="G40">
+        <v>0.1195483786099415</v>
+      </c>
+      <c r="H40">
+        <v>-0.01046031593248174</v>
+      </c>
+      <c r="I40">
+        <v>-0.1599759396385641</v>
+      </c>
+      <c r="J40">
+        <v>0.143017539245787</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B41">
-        <v>-0.00528034509507352</v>
+        <v>-0.01839406375995444</v>
       </c>
       <c r="C41">
-        <v>0.02132688551248518</v>
+        <v>0.0487535176137817</v>
       </c>
       <c r="D41">
-        <v>-0.001227767540208416</v>
+        <v>0.00903695126763592</v>
       </c>
       <c r="E41">
-        <v>0.01178586716978278</v>
+        <v>0.004168602173350976</v>
       </c>
       <c r="F41">
-        <v>-0.01080510739847336</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>0.005822083961686788</v>
+      </c>
+      <c r="G41">
+        <v>0.01141849048518587</v>
+      </c>
+      <c r="H41">
+        <v>0.02955522421686681</v>
+      </c>
+      <c r="I41">
+        <v>-0.06800402130125213</v>
+      </c>
+      <c r="J41">
+        <v>0.02643450896468719</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1537,50 +2041,86 @@
       <c r="F42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:6">
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B43">
-        <v>-0.001350783735001309</v>
+        <v>-0.01248988436085238</v>
       </c>
       <c r="C43">
-        <v>0.01535738286069466</v>
+        <v>0.04170728683596851</v>
       </c>
       <c r="D43">
-        <v>0.01023844867812779</v>
+        <v>0.01969194139032814</v>
       </c>
       <c r="E43">
-        <v>-0.03010718444324161</v>
+        <v>-0.01478582176116205</v>
       </c>
       <c r="F43">
-        <v>0.02306092996741415</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>0.01214212208514258</v>
+      </c>
+      <c r="G43">
+        <v>0.02651518589656952</v>
+      </c>
+      <c r="H43">
+        <v>0.04337851431566541</v>
+      </c>
+      <c r="I43">
+        <v>-0.03402515129203003</v>
+      </c>
+      <c r="J43">
+        <v>0.035715195040551</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B44">
-        <v>-0.01654078541759707</v>
+        <v>-0.005348223486084093</v>
       </c>
       <c r="C44">
-        <v>0.07793346413871964</v>
+        <v>0.08604760302658532</v>
       </c>
       <c r="D44">
-        <v>0.07416155302436128</v>
+        <v>0.03440734195750714</v>
       </c>
       <c r="E44">
-        <v>-0.09824900389163058</v>
+        <v>-0.09374543025299677</v>
       </c>
       <c r="F44">
-        <v>0.02829122594824757</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>0.01206246476462281</v>
+      </c>
+      <c r="G44">
+        <v>0.03306088710087223</v>
+      </c>
+      <c r="H44">
+        <v>0.03890758974139275</v>
+      </c>
+      <c r="I44">
+        <v>0.07146953636219487</v>
+      </c>
+      <c r="J44">
+        <v>-0.01127580665138547</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1597,130 +2137,214 @@
       <c r="F45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B46">
-        <v>0.002384301916559918</v>
+        <v>-0.001428037715402951</v>
       </c>
       <c r="C46">
-        <v>0.06032004720816121</v>
+        <v>0.06574565017934114</v>
       </c>
       <c r="D46">
-        <v>0.02774342236998068</v>
+        <v>0.01900597213781282</v>
       </c>
       <c r="E46">
-        <v>-0.05610057890841237</v>
+        <v>-0.03475223516639019</v>
       </c>
       <c r="F46">
-        <v>0.03680578105933329</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>-0.003631671021415061</v>
+      </c>
+      <c r="G46">
+        <v>0.0571904069669488</v>
+      </c>
+      <c r="H46">
+        <v>0.1116755159476623</v>
+      </c>
+      <c r="I46">
+        <v>-0.04768541998005921</v>
+      </c>
+      <c r="J46">
+        <v>0.08660758029335287</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B47">
-        <v>-0.01662661108671476</v>
+        <v>-0.02407387910040035</v>
       </c>
       <c r="C47">
-        <v>0.1098740393014157</v>
+        <v>0.09588176796011683</v>
       </c>
       <c r="D47">
-        <v>-0.02480902998639735</v>
+        <v>0.03067430359467017</v>
       </c>
       <c r="E47">
-        <v>0.03247506045049826</v>
+        <v>0.0155490840318998</v>
       </c>
       <c r="F47">
-        <v>-0.03068046482919023</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>-0.001328401751805558</v>
+      </c>
+      <c r="G47">
+        <v>-0.00808732389141018</v>
+      </c>
+      <c r="H47">
+        <v>0.08282774849723985</v>
+      </c>
+      <c r="I47">
+        <v>-0.02955232659573624</v>
+      </c>
+      <c r="J47">
+        <v>0.00908517271151481</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B48">
-        <v>-0.01096762750264073</v>
+        <v>-0.01640451266988027</v>
       </c>
       <c r="C48">
-        <v>0.05187878279305066</v>
+        <v>0.05676983949476197</v>
       </c>
       <c r="D48">
-        <v>-0.01584333375978754</v>
+        <v>0.04502101277984453</v>
       </c>
       <c r="E48">
-        <v>-0.07206762834420931</v>
+        <v>-0.02299083686836673</v>
       </c>
       <c r="F48">
-        <v>0.01481273704816507</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>-0.002365215746183849</v>
+      </c>
+      <c r="G48">
+        <v>0.02341323675461528</v>
+      </c>
+      <c r="H48">
+        <v>0.1105477972397084</v>
+      </c>
+      <c r="I48">
+        <v>0.02534100341691061</v>
+      </c>
+      <c r="J48">
+        <v>-0.06664246842286495</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>-0.006947976677211744</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>0.01510905769059891</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>0.002444639451740486</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>0.02317683882697906</v>
       </c>
       <c r="F49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
+        <v>-0.001467814164270506</v>
+      </c>
+      <c r="G49">
+        <v>0.01504993058620299</v>
+      </c>
+      <c r="H49">
+        <v>-0.01177485601686403</v>
+      </c>
+      <c r="I49">
+        <v>0.03584648891115678</v>
+      </c>
+      <c r="J49">
+        <v>0.01486599401482888</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B50">
-        <v>-0.00760404421596279</v>
+        <v>-0.01344669224499261</v>
       </c>
       <c r="C50">
-        <v>0.09511040698953196</v>
+        <v>0.09020782477607817</v>
       </c>
       <c r="D50">
-        <v>-0.01290504561929457</v>
+        <v>0.01764577248314015</v>
       </c>
       <c r="E50">
-        <v>0.006314471768596435</v>
+        <v>0.004233672344196074</v>
       </c>
       <c r="F50">
-        <v>-0.02929140265650833</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>0.008374512718117616</v>
+      </c>
+      <c r="G50">
+        <v>-0.02745734142773514</v>
+      </c>
+      <c r="H50">
+        <v>0.06488135482886813</v>
+      </c>
+      <c r="I50">
+        <v>-0.06722778143058664</v>
+      </c>
+      <c r="J50">
+        <v>-0.01575893828762115</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B51">
-        <v>-0.004657351516422035</v>
+        <v>0.005948772017790681</v>
       </c>
       <c r="C51">
-        <v>0.05638755401571562</v>
+        <v>0.03963762385272768</v>
       </c>
       <c r="D51">
-        <v>0.0680144197092724</v>
+        <v>0.01255141654041434</v>
       </c>
       <c r="E51">
-        <v>-0.06751453278091145</v>
+        <v>-0.04692259924272284</v>
       </c>
       <c r="F51">
-        <v>0.01583775705688375</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>-0.007180042953197702</v>
+      </c>
+      <c r="G51">
+        <v>0.02837109373608899</v>
+      </c>
+      <c r="H51">
+        <v>0.09066921749685514</v>
+      </c>
+      <c r="I51">
+        <v>0.0835495735141551</v>
+      </c>
+      <c r="J51">
+        <v>-0.08045896383212868</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1737,90 +2361,150 @@
       <c r="F52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B53">
-        <v>-0.04106599934571838</v>
+        <v>-0.05193574564221844</v>
       </c>
       <c r="C53">
-        <v>0.1608936146552195</v>
+        <v>0.1454873045266331</v>
       </c>
       <c r="D53">
-        <v>-0.07873843962343743</v>
+        <v>0.04743512776193072</v>
       </c>
       <c r="E53">
-        <v>0.04199100953067902</v>
+        <v>0.09004845398956586</v>
       </c>
       <c r="F53">
-        <v>0.004629391786729529</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>0.0003451658203162727</v>
+      </c>
+      <c r="G53">
+        <v>-0.05856220449268051</v>
+      </c>
+      <c r="H53">
+        <v>3.510543275746946e-05</v>
+      </c>
+      <c r="I53">
+        <v>-0.06217289213681777</v>
+      </c>
+      <c r="J53">
+        <v>-0.03672813353140221</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B54">
-        <v>-0.00704241638915337</v>
+        <v>-0.01384598895597173</v>
       </c>
       <c r="C54">
-        <v>0.05767739612160851</v>
+        <v>0.07046108794469461</v>
       </c>
       <c r="D54">
-        <v>0.0318829476426071</v>
+        <v>-0.0009375737463832158</v>
       </c>
       <c r="E54">
-        <v>-0.02146436691980165</v>
+        <v>-0.01802263527686904</v>
       </c>
       <c r="F54">
-        <v>0.01542466127904603</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>0.001055596739696566</v>
+      </c>
+      <c r="G54">
+        <v>0.02500863131564539</v>
+      </c>
+      <c r="H54">
+        <v>0.07815818356868671</v>
+      </c>
+      <c r="I54">
+        <v>-0.01716427213022051</v>
+      </c>
+      <c r="J54">
+        <v>0.03079133766329124</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B55">
-        <v>-0.02824521596142187</v>
+        <v>-0.02937597462988448</v>
       </c>
       <c r="C55">
-        <v>0.1223633360144173</v>
+        <v>0.1056369361091273</v>
       </c>
       <c r="D55">
-        <v>-0.07504702884047554</v>
+        <v>0.04849393771846166</v>
       </c>
       <c r="E55">
-        <v>0.007547066976638629</v>
+        <v>0.07216065155584898</v>
       </c>
       <c r="F55">
-        <v>-0.02109527491807694</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>-0.01414911208126536</v>
+      </c>
+      <c r="G55">
+        <v>-0.03064904646915378</v>
+      </c>
+      <c r="H55">
+        <v>0.01206981156308847</v>
+      </c>
+      <c r="I55">
+        <v>-0.0157128147777695</v>
+      </c>
+      <c r="J55">
+        <v>-0.01483486318921273</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B56">
-        <v>-0.0456649320947085</v>
+        <v>-0.04474371176896853</v>
       </c>
       <c r="C56">
-        <v>0.1952545638893114</v>
+        <v>0.1748033034969457</v>
       </c>
       <c r="D56">
-        <v>-0.1001022336234348</v>
+        <v>0.06588130788979793</v>
       </c>
       <c r="E56">
-        <v>0.08273901217796172</v>
+        <v>0.1261753462256134</v>
       </c>
       <c r="F56">
-        <v>-0.04471507403245392</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>-0.01004865115699267</v>
+      </c>
+      <c r="G56">
+        <v>-0.1155321053103955</v>
+      </c>
+      <c r="H56">
+        <v>-0.006345467384911703</v>
+      </c>
+      <c r="I56">
+        <v>-0.0128965371873472</v>
+      </c>
+      <c r="J56">
+        <v>-0.04800379089984451</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1837,250 +2521,406 @@
       <c r="F57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:6">
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B58">
-        <v>-0.01272609617075635</v>
+        <v>-0.009427222711679499</v>
       </c>
       <c r="C58">
-        <v>0.1872714860641559</v>
+        <v>0.1698813750303342</v>
       </c>
       <c r="D58">
-        <v>0.2693857850755817</v>
+        <v>-0.005904761931480625</v>
       </c>
       <c r="E58">
-        <v>-0.1368448059281796</v>
+        <v>-0.2874729806675325</v>
       </c>
       <c r="F58">
-        <v>-0.04996726264933064</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>0.0782926304716268</v>
+      </c>
+      <c r="G58">
+        <v>-0.1593762289831179</v>
+      </c>
+      <c r="H58">
+        <v>0.03477427726135297</v>
+      </c>
+      <c r="I58">
+        <v>0.2655392675717799</v>
+      </c>
+      <c r="J58">
+        <v>-0.2848338759779059</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B59">
-        <v>-0.267247519776405</v>
+        <v>-0.2796057807889934</v>
       </c>
       <c r="C59">
-        <v>-0.01977862009615786</v>
+        <v>-0.03749990422125957</v>
       </c>
       <c r="D59">
-        <v>0.04944995603972913</v>
+        <v>0.001645255511242402</v>
       </c>
       <c r="E59">
-        <v>-0.01979617563394686</v>
+        <v>-0.04813097817041541</v>
       </c>
       <c r="F59">
-        <v>-0.04985038933978925</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>-0.0203535305016471</v>
+      </c>
+      <c r="G59">
+        <v>-0.0226938067624413</v>
+      </c>
+      <c r="H59">
+        <v>-0.02907823515452709</v>
+      </c>
+      <c r="I59">
+        <v>-0.0555360041154488</v>
+      </c>
+      <c r="J59">
+        <v>-0.03443030258706697</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B60">
-        <v>-0.1204133787280435</v>
+        <v>-0.148377685850571</v>
       </c>
       <c r="C60">
-        <v>0.1487197716365821</v>
+        <v>0.1598471324479784</v>
       </c>
       <c r="D60">
-        <v>-0.06063819038302132</v>
+        <v>0.03778389953302748</v>
       </c>
       <c r="E60">
-        <v>-0.0300674673315019</v>
+        <v>0.04379275033023</v>
       </c>
       <c r="F60">
-        <v>0.2089459003559019</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>-0.08907640840667215</v>
+      </c>
+      <c r="G60">
+        <v>0.2405837791283056</v>
+      </c>
+      <c r="H60">
+        <v>-0.2694566729376459</v>
+      </c>
+      <c r="I60">
+        <v>0.06187305731989503</v>
+      </c>
+      <c r="J60">
+        <v>0.05408050922004175</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B61">
-        <v>-0.006054776348864</v>
+        <v>-0.01625298729793172</v>
       </c>
       <c r="C61">
-        <v>0.09602602486969657</v>
+        <v>0.1049404371343339</v>
       </c>
       <c r="D61">
-        <v>-0.01718883248613106</v>
+        <v>0.04088045570025489</v>
       </c>
       <c r="E61">
-        <v>-0.0464544305268107</v>
+        <v>3.309819268424748e-05</v>
       </c>
       <c r="F61">
-        <v>0.05952640916192108</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>-0.00888021466109361</v>
+      </c>
+      <c r="G61">
+        <v>0.05282753083094054</v>
+      </c>
+      <c r="H61">
+        <v>0.04488826458785852</v>
+      </c>
+      <c r="I61">
+        <v>-0.01842733218186131</v>
+      </c>
+      <c r="J61">
+        <v>0.02907822992805268</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B62">
-        <v>0</v>
+        <v>-0.0007210101603495021</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>0.005510965663777685</v>
       </c>
       <c r="D62">
-        <v>0</v>
+        <v>0.005175592308395115</v>
       </c>
       <c r="E62">
-        <v>0</v>
+        <v>-0.01469189928125039</v>
       </c>
       <c r="F62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6">
+        <v>0.00118305963230331</v>
+      </c>
+      <c r="G62">
+        <v>0.01824511146726733</v>
+      </c>
+      <c r="H62">
+        <v>0.01363036927019774</v>
+      </c>
+      <c r="I62">
+        <v>-0.001983701298536677</v>
+      </c>
+      <c r="J62">
+        <v>0.01095358718476966</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B63">
-        <v>0.003129261231683013</v>
+        <v>-0.01830722692612883</v>
       </c>
       <c r="C63">
-        <v>0.06258011732415798</v>
+        <v>0.07478591647207956</v>
       </c>
       <c r="D63">
-        <v>0.008365946088489297</v>
+        <v>0.04228032382714167</v>
       </c>
       <c r="E63">
-        <v>-0.03375206997649227</v>
+        <v>-0.01804202291363317</v>
       </c>
       <c r="F63">
-        <v>0.03415752172867006</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>-0.00784335951237059</v>
+      </c>
+      <c r="G63">
+        <v>0.03378691869382795</v>
+      </c>
+      <c r="H63">
+        <v>0.05858268526418604</v>
+      </c>
+      <c r="I63">
+        <v>-0.03294416599371221</v>
+      </c>
+      <c r="J63">
+        <v>0.007995525677084213</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B64">
-        <v>-0.009170245334238641</v>
+        <v>-0.01510249177796857</v>
       </c>
       <c r="C64">
-        <v>0.1244037495179715</v>
+        <v>0.1036245587013566</v>
       </c>
       <c r="D64">
-        <v>-0.05544177383207363</v>
+        <v>0.03169662338962882</v>
       </c>
       <c r="E64">
-        <v>-0.02401381762004969</v>
+        <v>-0.003872015463539904</v>
       </c>
       <c r="F64">
-        <v>0.03299546927632947</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>0.02841381182281237</v>
+      </c>
+      <c r="G64">
+        <v>0.02010638973885676</v>
+      </c>
+      <c r="H64">
+        <v>0.01069786807351533</v>
+      </c>
+      <c r="I64">
+        <v>-0.04243760939246051</v>
+      </c>
+      <c r="J64">
+        <v>0.01951781001068558</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B65">
-        <v>-0.01579414281254875</v>
+        <v>-0.02545410017765726</v>
       </c>
       <c r="C65">
-        <v>0.06599940685880036</v>
+        <v>0.08663611063361516</v>
       </c>
       <c r="D65">
-        <v>0.04998909848735801</v>
+        <v>-0.000270051794844644</v>
       </c>
       <c r="E65">
-        <v>-0.059050808592484</v>
+        <v>-0.06795826399570178</v>
       </c>
       <c r="F65">
-        <v>0.06109412921714974</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>0.01320115903364038</v>
+      </c>
+      <c r="G65">
+        <v>0.1122490909997771</v>
+      </c>
+      <c r="H65">
+        <v>-0.01817568504174711</v>
+      </c>
+      <c r="I65">
+        <v>0.07313049182235273</v>
+      </c>
+      <c r="J65">
+        <v>0.01071519434793734</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B66">
-        <v>0.001171979556735592</v>
+        <v>-0.007349724796971467</v>
       </c>
       <c r="C66">
-        <v>0.1557818021888659</v>
+        <v>0.1603483265153302</v>
       </c>
       <c r="D66">
-        <v>0.06671383274183117</v>
+        <v>0.02434483022511819</v>
       </c>
       <c r="E66">
-        <v>-0.08172720335196478</v>
+        <v>-0.05021841239522865</v>
       </c>
       <c r="F66">
-        <v>0.05413518051762979</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>-0.009973038779361879</v>
+      </c>
+      <c r="G66">
+        <v>0.04166263103861251</v>
+      </c>
+      <c r="H66">
+        <v>0.04568176932485135</v>
+      </c>
+      <c r="I66">
+        <v>0.02025204312653905</v>
+      </c>
+      <c r="J66">
+        <v>0.004301201717212644</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B67">
-        <v>-0.02180025736555408</v>
+        <v>-0.0203325835562818</v>
       </c>
       <c r="C67">
-        <v>0.04433034689472169</v>
+        <v>0.057302506992094</v>
       </c>
       <c r="D67">
-        <v>-0.03456800992518574</v>
+        <v>0.03183129470973695</v>
       </c>
       <c r="E67">
-        <v>-0.03718647423387411</v>
+        <v>-0.001182245800132705</v>
       </c>
       <c r="F67">
-        <v>0.01521864356705074</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>0.03474806977436551</v>
+      </c>
+      <c r="G67">
+        <v>0.04052851924747718</v>
+      </c>
+      <c r="H67">
+        <v>0.03249246554249476</v>
+      </c>
+      <c r="I67">
+        <v>-0.05387411119574381</v>
+      </c>
+      <c r="J67">
+        <v>0.01628273729992824</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B68">
-        <v>-0.2575407851347387</v>
+        <v>-0.2875926539550311</v>
       </c>
       <c r="C68">
-        <v>-0.03778563901030732</v>
+        <v>-0.04288383949150985</v>
       </c>
       <c r="D68">
-        <v>0.05092111199583084</v>
+        <v>-0.02431795793125519</v>
       </c>
       <c r="E68">
-        <v>-0.02001322149032128</v>
+        <v>-0.06588416436353629</v>
       </c>
       <c r="F68">
-        <v>-0.04675986858124254</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>0.01372263908073529</v>
+      </c>
+      <c r="G68">
+        <v>-0.04243026631654927</v>
+      </c>
+      <c r="H68">
+        <v>-0.02444634745030289</v>
+      </c>
+      <c r="I68">
+        <v>-0.04777999318808087</v>
+      </c>
+      <c r="J68">
+        <v>-0.02142536192618705</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B69">
-        <v>-0.01185884268940651</v>
+        <v>-0.008393301433748106</v>
       </c>
       <c r="C69">
-        <v>0.1063651115670984</v>
+        <v>0.07951431190293082</v>
       </c>
       <c r="D69">
-        <v>-0.0504767485247706</v>
+        <v>0.0243353077917977</v>
       </c>
       <c r="E69">
-        <v>-0.01474662341015054</v>
+        <v>0.01642748305301063</v>
       </c>
       <c r="F69">
-        <v>-0.02591042763912717</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>0.001641558260446368</v>
+      </c>
+      <c r="G69">
+        <v>0.007747358735039801</v>
+      </c>
+      <c r="H69">
+        <v>0.06042199601939252</v>
+      </c>
+      <c r="I69">
+        <v>-0.03358531470541132</v>
+      </c>
+      <c r="J69">
+        <v>-0.02437964117759542</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2097,510 +2937,822 @@
       <c r="F70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:6">
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B71">
-        <v>-0.2812735760512708</v>
+        <v>-0.2774601697240409</v>
       </c>
       <c r="C71">
-        <v>-0.05113810629816487</v>
+        <v>-0.06725274341399499</v>
       </c>
       <c r="D71">
-        <v>0.02855343484803597</v>
+        <v>-0.01093273998600224</v>
       </c>
       <c r="E71">
-        <v>-0.005847416074964709</v>
+        <v>-0.03678139184322146</v>
       </c>
       <c r="F71">
-        <v>0.01158486511309638</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>0.03502085030942562</v>
+      </c>
+      <c r="G71">
+        <v>-0.009208091277949424</v>
+      </c>
+      <c r="H71">
+        <v>0.05310645192993948</v>
+      </c>
+      <c r="I71">
+        <v>-0.03448685285191548</v>
+      </c>
+      <c r="J71">
+        <v>-0.1381574641669464</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B72">
-        <v>-0.05563492706302696</v>
+        <v>-0.05993362475515582</v>
       </c>
       <c r="C72">
-        <v>0.1825272185119955</v>
+        <v>0.1570778585729364</v>
       </c>
       <c r="D72">
-        <v>-0.02930189912652064</v>
+        <v>0.02390447363857576</v>
       </c>
       <c r="E72">
-        <v>-0.06107080123124888</v>
+        <v>0.01947594206178924</v>
       </c>
       <c r="F72">
-        <v>0.1158746237180475</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>-0.01675219251391043</v>
+      </c>
+      <c r="G72">
+        <v>0.04039522041160408</v>
+      </c>
+      <c r="H72">
+        <v>-0.04798078613318897</v>
+      </c>
+      <c r="I72">
+        <v>0.02548792372708574</v>
+      </c>
+      <c r="J72">
+        <v>0.02021887502180492</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B73">
-        <v>-0.101335648673762</v>
+        <v>-0.151001068710086</v>
       </c>
       <c r="C73">
-        <v>0.1544003241554088</v>
+        <v>0.1956886794090923</v>
       </c>
       <c r="D73">
-        <v>-0.1017378395324522</v>
+        <v>0.05987395221947337</v>
       </c>
       <c r="E73">
-        <v>-0.03235738147823262</v>
+        <v>0.1094839655572208</v>
       </c>
       <c r="F73">
-        <v>0.2946750204505801</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>-0.1102653036355519</v>
+      </c>
+      <c r="G73">
+        <v>0.394187921942373</v>
+      </c>
+      <c r="H73">
+        <v>-0.3207555934175847</v>
+      </c>
+      <c r="I73">
+        <v>0.06149069167575564</v>
+      </c>
+      <c r="J73">
+        <v>-0.1051740639380387</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B74">
-        <v>-0.02268592226039585</v>
+        <v>-0.03460801550344377</v>
       </c>
       <c r="C74">
-        <v>0.1210420360910169</v>
+        <v>0.1157659950283844</v>
       </c>
       <c r="D74">
-        <v>-0.1040965039946955</v>
+        <v>0.03963985640267451</v>
       </c>
       <c r="E74">
-        <v>0.0440356140881353</v>
+        <v>0.08283845824206011</v>
       </c>
       <c r="F74">
-        <v>-0.01610210431983029</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>0.002162528788007712</v>
+      </c>
+      <c r="G74">
+        <v>-0.03093639039705329</v>
+      </c>
+      <c r="H74">
+        <v>0.01227308592701589</v>
+      </c>
+      <c r="I74">
+        <v>-0.01381046405500287</v>
+      </c>
+      <c r="J74">
+        <v>-0.02163563709741575</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B75">
-        <v>-0.08782574003604279</v>
+        <v>-0.06554383075674189</v>
       </c>
       <c r="C75">
-        <v>0.2116481135449311</v>
+        <v>0.1964611227422656</v>
       </c>
       <c r="D75">
-        <v>-0.2119167374516185</v>
+        <v>0.06989880118440982</v>
       </c>
       <c r="E75">
-        <v>0.1510754733552501</v>
+        <v>0.2243410179107983</v>
       </c>
       <c r="F75">
-        <v>-0.05965565553460953</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>0.07963521846743155</v>
+      </c>
+      <c r="G75">
+        <v>-0.1546047412120509</v>
+      </c>
+      <c r="H75">
+        <v>-0.03449655949756263</v>
+      </c>
+      <c r="I75">
+        <v>-0.1003194738134116</v>
+      </c>
+      <c r="J75">
+        <v>-0.01795503488155581</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B76">
-        <v>-0.03674488549262882</v>
+        <v>-0.03846898426830982</v>
       </c>
       <c r="C76">
-        <v>0.1455912490005087</v>
+        <v>0.141915548360806</v>
       </c>
       <c r="D76">
-        <v>-0.09794793997689236</v>
+        <v>0.06393356537808116</v>
       </c>
       <c r="E76">
-        <v>0.04741519823343669</v>
+        <v>0.1075814337405255</v>
       </c>
       <c r="F76">
-        <v>-0.003770444145938812</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>0.001280142116015636</v>
+      </c>
+      <c r="G76">
+        <v>-0.03421350360866292</v>
+      </c>
+      <c r="H76">
+        <v>0.00960464100218679</v>
+      </c>
+      <c r="I76">
+        <v>-0.04568758444534417</v>
+      </c>
+      <c r="J76">
+        <v>-0.01134374045408478</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B77">
-        <v>-0.07706088875184501</v>
+        <v>-0.04619014979073996</v>
       </c>
       <c r="C77">
-        <v>0.1706718146808058</v>
+        <v>0.2741336797433606</v>
       </c>
       <c r="D77">
-        <v>0.559511016563833</v>
+        <v>-0.9454809195225488</v>
       </c>
       <c r="E77">
-        <v>0.7122690232376858</v>
+        <v>0.1018358585113037</v>
       </c>
       <c r="F77">
-        <v>0.2582449405582584</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>0.01660406306668573</v>
+      </c>
+      <c r="G77">
+        <v>0.01365760108199299</v>
+      </c>
+      <c r="H77">
+        <v>0.04642445907482243</v>
+      </c>
+      <c r="I77">
+        <v>-0.00811301517933353</v>
+      </c>
+      <c r="J77">
+        <v>0.002085124236376759</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B78">
-        <v>-0.03149357696612645</v>
+        <v>-0.02865387785940887</v>
       </c>
       <c r="C78">
-        <v>0.157054662682369</v>
+        <v>0.123103614253438</v>
       </c>
       <c r="D78">
-        <v>0.05407690232934118</v>
+        <v>0.07282291051149252</v>
       </c>
       <c r="E78">
-        <v>-0.09473332902266382</v>
+        <v>-0.02295784725096146</v>
       </c>
       <c r="F78">
-        <v>-0.1550736257556987</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>-0.02518514338880609</v>
+      </c>
+      <c r="G78">
+        <v>-0.0881201749392925</v>
+      </c>
+      <c r="H78">
+        <v>0.1327766986708354</v>
+      </c>
+      <c r="I78">
+        <v>0.4637162057762419</v>
+      </c>
+      <c r="J78">
+        <v>-0.2085227625069203</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B79">
-        <v>-0.06185798185167717</v>
+        <v>-0.06066178723502084</v>
       </c>
       <c r="C79">
-        <v>0.2455280888146745</v>
+        <v>0.1856524562476315</v>
       </c>
       <c r="D79">
-        <v>-0.2009776027337615</v>
+        <v>0.06421087301415178</v>
       </c>
       <c r="E79">
-        <v>0.1431651827794334</v>
+        <v>0.186444028097194</v>
       </c>
       <c r="F79">
-        <v>-0.1821401195480049</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6">
+        <v>0.00500797991126445</v>
+      </c>
+      <c r="G79">
+        <v>-0.2208493604581587</v>
+      </c>
+      <c r="H79">
+        <v>0.03607733814452848</v>
+      </c>
+      <c r="I79">
+        <v>-0.08932712449489477</v>
+      </c>
+      <c r="J79">
+        <v>-0.1035618403989823</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B80">
-        <v>0.006716252829755004</v>
+        <v>-0.01085334891791866</v>
       </c>
       <c r="C80">
-        <v>0.05798668714435595</v>
+        <v>0.05697120075687252</v>
       </c>
       <c r="D80">
-        <v>-0.0007118114784783741</v>
+        <v>0.03420785774623455</v>
       </c>
       <c r="E80">
-        <v>-0.02591823227197895</v>
+        <v>-0.04355807115570676</v>
       </c>
       <c r="F80">
-        <v>0.01719256617461321</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>-0.06127861393380156</v>
+      </c>
+      <c r="G80">
+        <v>0.05132242669697971</v>
+      </c>
+      <c r="H80">
+        <v>-0.04018893208107659</v>
+      </c>
+      <c r="I80">
+        <v>-0.08032824184094493</v>
+      </c>
+      <c r="J80">
+        <v>0.005152450657134267</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B81">
-        <v>-0.03181321935752527</v>
+        <v>-0.02018825774212299</v>
       </c>
       <c r="C81">
-        <v>0.127090874760012</v>
+        <v>0.1164678670350125</v>
       </c>
       <c r="D81">
-        <v>-0.1391121381822719</v>
+        <v>0.0429941612919698</v>
       </c>
       <c r="E81">
-        <v>0.09762823060598175</v>
+        <v>0.1010307258878507</v>
       </c>
       <c r="F81">
-        <v>-0.05274382341755458</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>0.01131877355597655</v>
+      </c>
+      <c r="G81">
+        <v>-0.094763066067691</v>
+      </c>
+      <c r="H81">
+        <v>0.06058096318460476</v>
+      </c>
+      <c r="I81">
+        <v>-0.090583294329979</v>
+      </c>
+      <c r="J81">
+        <v>-0.04186916160479704</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B82">
-        <v>-0.04909000567088739</v>
+        <v>-0.04661506850161375</v>
       </c>
       <c r="C82">
-        <v>0.1565950321069481</v>
+        <v>0.1318782244345943</v>
       </c>
       <c r="D82">
-        <v>-0.1448502874636306</v>
+        <v>0.06911111242540094</v>
       </c>
       <c r="E82">
-        <v>0.05984188982345721</v>
+        <v>0.1230912287177116</v>
       </c>
       <c r="F82">
-        <v>-0.007741588800749804</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
+        <v>-0.004818820313471243</v>
+      </c>
+      <c r="G82">
+        <v>-0.06588014127757426</v>
+      </c>
+      <c r="H82">
+        <v>0.02660565683056287</v>
+      </c>
+      <c r="I82">
+        <v>-0.06217692646886842</v>
+      </c>
+      <c r="J82">
+        <v>-0.04114068845060312</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B83">
-        <v>0.002224517524653918</v>
+        <v>-0.003456860380555101</v>
       </c>
       <c r="C83">
-        <v>0.04427247691623632</v>
+        <v>0.007611565209726955</v>
       </c>
       <c r="D83">
-        <v>0.1605603902254257</v>
+        <v>-0.03640686010015566</v>
       </c>
       <c r="E83">
-        <v>0.1583742677253616</v>
+        <v>-0.1275544434546162</v>
       </c>
       <c r="F83">
-        <v>-0.6606739837035007</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>-0.9179674127257109</v>
+      </c>
+      <c r="G83">
+        <v>-0.2610854362724054</v>
+      </c>
+      <c r="H83">
+        <v>-0.06590727285834182</v>
+      </c>
+      <c r="I83">
+        <v>-0.06307147103542694</v>
+      </c>
+      <c r="J83">
+        <v>-0.02269762851834504</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B84">
-        <v>0.001289204786790916</v>
+        <v>0.001440349454088411</v>
       </c>
       <c r="C84">
-        <v>0.03278548058726539</v>
+        <v>0.03552381978499262</v>
       </c>
       <c r="D84">
-        <v>0.03876377074109371</v>
+        <v>0.0561344491899853</v>
       </c>
       <c r="E84">
-        <v>-0.09017815663331588</v>
+        <v>-0.07728274484180632</v>
       </c>
       <c r="F84">
-        <v>-0.008382426763396638</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6">
+        <v>0.04702237387305216</v>
+      </c>
+      <c r="G84">
+        <v>-0.04128478535276819</v>
+      </c>
+      <c r="H84">
+        <v>0.07965951327980612</v>
+      </c>
+      <c r="I84">
+        <v>0.007400695528862153</v>
+      </c>
+      <c r="J84">
+        <v>0.104761006991437</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B85">
-        <v>-0.0348494690583209</v>
+        <v>-0.03053754700043541</v>
       </c>
       <c r="C85">
-        <v>0.1716164247347067</v>
+        <v>0.1415802439960165</v>
       </c>
       <c r="D85">
-        <v>-0.1529511932922697</v>
+        <v>0.07209878591593827</v>
       </c>
       <c r="E85">
-        <v>0.1039488105295858</v>
+        <v>0.176581655163654</v>
       </c>
       <c r="F85">
-        <v>-0.1222710607959095</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>0.008111284046026217</v>
+      </c>
+      <c r="G85">
+        <v>-0.1333526102729043</v>
+      </c>
+      <c r="H85">
+        <v>0.009379958922913165</v>
+      </c>
+      <c r="I85">
+        <v>-0.1048211149096094</v>
+      </c>
+      <c r="J85">
+        <v>-0.04826117095163711</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B86">
-        <v>-0.04660269047902022</v>
+        <v>-0.02266805566825397</v>
       </c>
       <c r="C86">
-        <v>0.04642809383492535</v>
+        <v>0.06924866885914741</v>
       </c>
       <c r="D86">
-        <v>0.06155162581150399</v>
+        <v>0.01730182566957346</v>
       </c>
       <c r="E86">
-        <v>-0.0197127104085302</v>
+        <v>-0.05892598831984745</v>
       </c>
       <c r="F86">
-        <v>0.03438777931861607</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>0.04989492481949345</v>
+      </c>
+      <c r="G86">
+        <v>-0.07642018773776668</v>
+      </c>
+      <c r="H86">
+        <v>0.07195510885574208</v>
+      </c>
+      <c r="I86">
+        <v>0.03495129518975672</v>
+      </c>
+      <c r="J86">
+        <v>-0.1936994356645832</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B87">
-        <v>-0.03489689691217043</v>
+        <v>-0.01897419689288831</v>
       </c>
       <c r="C87">
-        <v>0.1273281278676389</v>
+        <v>0.1227135693135482</v>
       </c>
       <c r="D87">
-        <v>0.1128109213220626</v>
+        <v>-0.006459643850974423</v>
       </c>
       <c r="E87">
-        <v>-0.102291964991888</v>
+        <v>-0.1055684752846417</v>
       </c>
       <c r="F87">
-        <v>0.007274451321485391</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>0.02416749671416868</v>
+      </c>
+      <c r="G87">
+        <v>-0.008115987432352766</v>
+      </c>
+      <c r="H87">
+        <v>0.03104246896879154</v>
+      </c>
+      <c r="I87">
+        <v>0.1776928665401706</v>
+      </c>
+      <c r="J87">
+        <v>0.04754492372704863</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B88">
-        <v>-0.01958042407072787</v>
+        <v>-0.03516594645192727</v>
       </c>
       <c r="C88">
-        <v>0.07232493888514326</v>
+        <v>0.08040558955130432</v>
       </c>
       <c r="D88">
-        <v>-0.07603453618825802</v>
+        <v>0.03488676642156368</v>
       </c>
       <c r="E88">
-        <v>0.00963677784947509</v>
+        <v>0.02227708071343553</v>
       </c>
       <c r="F88">
-        <v>0.02701587948835456</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>0.005986224185368582</v>
+      </c>
+      <c r="G88">
+        <v>0.0223505847435217</v>
+      </c>
+      <c r="H88">
+        <v>-0.009216149719051745</v>
+      </c>
+      <c r="I88">
+        <v>-0.0870051045940534</v>
+      </c>
+      <c r="J88">
+        <v>0.02693758982069939</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B89">
-        <v>-0.4160071489112646</v>
+        <v>-0.3953828684379172</v>
       </c>
       <c r="C89">
-        <v>-0.1044945102550517</v>
+        <v>-0.1165654285280739</v>
       </c>
       <c r="D89">
-        <v>-0.005032587188057284</v>
+        <v>-0.03314594871673203</v>
       </c>
       <c r="E89">
-        <v>-0.182549814607123</v>
+        <v>-0.06226570957782954</v>
       </c>
       <c r="F89">
-        <v>-0.09233801799389355</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>-0.05475230974154551</v>
+      </c>
+      <c r="G89">
+        <v>-0.04009740738989577</v>
+      </c>
+      <c r="H89">
+        <v>0.07182891623027889</v>
+      </c>
+      <c r="I89">
+        <v>0.4646374815850402</v>
+      </c>
+      <c r="J89">
+        <v>0.467742617518734</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B90">
-        <v>-0.3203618335108235</v>
+        <v>-0.3214234128494558</v>
       </c>
       <c r="C90">
-        <v>-0.04771416613743606</v>
+        <v>-0.06683132296384414</v>
       </c>
       <c r="D90">
-        <v>0.02849316925017538</v>
+        <v>-0.00149903497079719</v>
       </c>
       <c r="E90">
-        <v>0.00238171494950474</v>
+        <v>-0.02853970061265109</v>
       </c>
       <c r="F90">
-        <v>-0.03995596042228054</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>0.00494835277782732</v>
+      </c>
+      <c r="G90">
+        <v>-0.0298008211209201</v>
+      </c>
+      <c r="H90">
+        <v>-0.01863957602502795</v>
+      </c>
+      <c r="I90">
+        <v>-0.09730619248272228</v>
+      </c>
+      <c r="J90">
+        <v>-0.05932107841611809</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B91">
-        <v>-0.04071491350594929</v>
+        <v>-0.05030081306597425</v>
       </c>
       <c r="C91">
-        <v>0.1374541661245362</v>
+        <v>0.1169756156769624</v>
       </c>
       <c r="D91">
-        <v>-0.0871421834888219</v>
+        <v>0.0364363960067065</v>
       </c>
       <c r="E91">
-        <v>0.06737522367865356</v>
+        <v>0.0884192353084583</v>
       </c>
       <c r="F91">
-        <v>-0.05761697327931279</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>-0.03199718627114599</v>
+      </c>
+      <c r="G91">
+        <v>-0.07432149333145532</v>
+      </c>
+      <c r="H91">
+        <v>0.005132007819437688</v>
+      </c>
+      <c r="I91">
+        <v>-0.04508061459108938</v>
+      </c>
+      <c r="J91">
+        <v>0.007453580084794231</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B92">
-        <v>-0.3542162161159994</v>
+        <v>-0.3505389655061004</v>
       </c>
       <c r="C92">
-        <v>-0.1055716715162867</v>
+        <v>-0.1178988669755561</v>
       </c>
       <c r="D92">
-        <v>0.0381899957090101</v>
+        <v>-0.03338703825643154</v>
       </c>
       <c r="E92">
-        <v>-0.01517089967035944</v>
+        <v>-0.06773894899435952</v>
       </c>
       <c r="F92">
-        <v>0.05188938722235423</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>0.09516796692963199</v>
+      </c>
+      <c r="G92">
+        <v>-0.01426749139368799</v>
+      </c>
+      <c r="H92">
+        <v>0.0520145906623173</v>
+      </c>
+      <c r="I92">
+        <v>-0.1271559667052853</v>
+      </c>
+      <c r="J92">
+        <v>-0.08492130870985767</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B93">
-        <v>-0.3299371123121124</v>
+        <v>-0.3227715521090536</v>
       </c>
       <c r="C93">
-        <v>-0.08850086000090261</v>
+        <v>-0.110896270235203</v>
       </c>
       <c r="D93">
-        <v>-0.03177464895191861</v>
+        <v>0.01115088852201544</v>
       </c>
       <c r="E93">
-        <v>0.006854642437360925</v>
+        <v>0.00264438755491972</v>
       </c>
       <c r="F93">
-        <v>-0.003783529194144231</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>0.0140926713822172</v>
+      </c>
+      <c r="G93">
+        <v>-0.03457777362371763</v>
+      </c>
+      <c r="H93">
+        <v>0.03925427176411932</v>
+      </c>
+      <c r="I93">
+        <v>-0.06560378495336265</v>
+      </c>
+      <c r="J93">
+        <v>-0.09605481783248682</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B94">
-        <v>-0.07992887860114353</v>
+        <v>-0.08027171557989417</v>
       </c>
       <c r="C94">
-        <v>0.2226167963007212</v>
+        <v>0.1968529230617792</v>
       </c>
       <c r="D94">
-        <v>-0.2374182844315989</v>
+        <v>0.0929214645793527</v>
       </c>
       <c r="E94">
-        <v>0.1513527489178685</v>
+        <v>0.3012311980949885</v>
       </c>
       <c r="F94">
-        <v>-0.1892628895431243</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>0.04586697986755193</v>
+      </c>
+      <c r="G94">
+        <v>-0.384775812915749</v>
+      </c>
+      <c r="H94">
+        <v>-0.07853493590464646</v>
+      </c>
+      <c r="I94">
+        <v>0.1293590100308666</v>
+      </c>
+      <c r="J94">
+        <v>0.4268092645083374</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B95">
-        <v>-0.02992671792031258</v>
+        <v>-0.03434126822458887</v>
       </c>
       <c r="C95">
-        <v>0.06398418032297655</v>
+        <v>0.1083950997821759</v>
       </c>
       <c r="D95">
-        <v>-0.02695990801112415</v>
+        <v>0.02641564532945474</v>
       </c>
       <c r="E95">
-        <v>-0.01329455571424367</v>
+        <v>0.004382250147538204</v>
       </c>
       <c r="F95">
-        <v>0.1173341021333591</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>0.01127460399966243</v>
+      </c>
+      <c r="G95">
+        <v>0.1330445178438607</v>
+      </c>
+      <c r="H95">
+        <v>0.02825863332986032</v>
+      </c>
+      <c r="I95">
+        <v>-0.07358958310939374</v>
+      </c>
+      <c r="J95">
+        <v>0.1922373924971747</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2617,70 +3769,118 @@
       <c r="F96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:6">
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>-0.005063433066410816</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>0.01121702323135647</v>
       </c>
       <c r="D97">
-        <v>0</v>
+        <v>-0.02313362017630662</v>
       </c>
       <c r="E97">
-        <v>0</v>
+        <v>-0.01326426566928073</v>
       </c>
       <c r="F97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6">
+        <v>0.01218741139233595</v>
+      </c>
+      <c r="G97">
+        <v>0.03729688747515907</v>
+      </c>
+      <c r="H97">
+        <v>-0.008076170894100317</v>
+      </c>
+      <c r="I97">
+        <v>-0.0007295242736541666</v>
+      </c>
+      <c r="J97">
+        <v>-0.01626477934038865</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B98">
-        <v>-0.08341449063767929</v>
+        <v>-0.1320274669405676</v>
       </c>
       <c r="C98">
-        <v>0.1506791128391588</v>
+        <v>0.1677760074731734</v>
       </c>
       <c r="D98">
-        <v>-0.03745807602044447</v>
+        <v>0.07426305251825714</v>
       </c>
       <c r="E98">
-        <v>-0.04680212308128032</v>
+        <v>0.07799382418465055</v>
       </c>
       <c r="F98">
-        <v>0.2244491302346459</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>-0.07594939844802384</v>
+      </c>
+      <c r="G98">
+        <v>0.3466233874146443</v>
+      </c>
+      <c r="H98">
+        <v>-0.3413302606789679</v>
+      </c>
+      <c r="I98">
+        <v>0.1283395531197714</v>
+      </c>
+      <c r="J98">
+        <v>-0.06976030034262228</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B99">
-        <v>0</v>
+        <v>-0.001166665621917162</v>
       </c>
       <c r="C99">
-        <v>0</v>
+        <v>0.01003190102613633</v>
       </c>
       <c r="D99">
-        <v>0</v>
+        <v>-0.01169397449800727</v>
       </c>
       <c r="E99">
-        <v>0</v>
+        <v>0.006852014773525628</v>
       </c>
       <c r="F99">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6">
+        <v>0.002597401617796117</v>
+      </c>
+      <c r="G99">
+        <v>0.00529531061537077</v>
+      </c>
+      <c r="H99">
+        <v>0.03800561924464079</v>
+      </c>
+      <c r="I99">
+        <v>0.02127331650189535</v>
+      </c>
+      <c r="J99">
+        <v>-0.005537049859455401</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2697,50 +3897,86 @@
       <c r="F100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B101">
-        <v>-0.003715363733735306</v>
+        <v>-0.008205186418430406</v>
       </c>
       <c r="C101">
-        <v>0.05342546999328033</v>
+        <v>0.07598326570293877</v>
       </c>
       <c r="D101">
-        <v>0.04707066871317674</v>
+        <v>0.03034821869911938</v>
       </c>
       <c r="E101">
-        <v>-0.0914272588271513</v>
+        <v>-0.1151340639437668</v>
       </c>
       <c r="F101">
-        <v>0.05371206852418164</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+        <v>-0.048595490798052</v>
+      </c>
+      <c r="G101">
+        <v>0.1519775164119246</v>
+      </c>
+      <c r="H101">
+        <v>0.2652084620126969</v>
+      </c>
+      <c r="I101">
+        <v>-0.09026916701194154</v>
+      </c>
+      <c r="J101">
+        <v>0.2284707799161411</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B102">
-        <v>-0.01630543086366047</v>
+        <v>-0.006502662443062478</v>
       </c>
       <c r="C102">
-        <v>0.08220386914879239</v>
+        <v>0.03965982065213912</v>
       </c>
       <c r="D102">
-        <v>-0.05127587616369197</v>
+        <v>0.01228925471112429</v>
       </c>
       <c r="E102">
-        <v>0.04086835381552506</v>
+        <v>0.04031849441700508</v>
       </c>
       <c r="F102">
-        <v>-0.03802609600698417</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
+        <v>-0.01063978137267667</v>
+      </c>
+      <c r="G102">
+        <v>-0.04142088795101789</v>
+      </c>
+      <c r="H102">
+        <v>0.01385440260736728</v>
+      </c>
+      <c r="I102">
+        <v>-0.00242878076315223</v>
+      </c>
+      <c r="J102">
+        <v>-0.005586071586928014</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2757,10 +3993,22 @@
       <c r="F103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:6">
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2775,6 +4023,18 @@
         <v>0</v>
       </c>
       <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
         <v>0</v>
       </c>
     </row>
